--- a/test.xlsx
+++ b/test.xlsx
@@ -12,24 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Aika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arviointiväli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiedoston lataus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiedosto</t>
+  </si>
   <si>
     <t xml:space="preserve">MalliRasti1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maali</t>
   </si>
   <si>
     <t xml:space="preserve">Rasti2</t>
   </si>
   <si>
-    <t xml:space="preserve">Mallirasti2</t>
+    <t xml:space="preserve">Tekstilaatikko</t>
   </si>
   <si>
-    <t xml:space="preserve">MalliRasti</t>
+    <t xml:space="preserve">Tekstikenttä</t>
   </si>
   <si>
-    <t xml:space="preserve">Rast</t>
+    <t xml:space="preserve">Mallirasti2Teht1</t>
   </si>
   <si>
-    <t xml:space="preserve">MalliRasti008</t>
+    <t xml:space="preserve">Mallirasti2Teht2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallirasti2</t>
   </si>
 </sst>
 </file>
@@ -83,33 +110,79 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>5</v>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="K1"/>
-    <mergeCell ref="L1"/>
-    <mergeCell ref="M1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t xml:space="preserve">Aika</t>
   </si>
@@ -57,6 +57,54 @@
   </si>
   <si>
     <t xml:space="preserve">Mallirasti2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Räves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/16/2023 16:04:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/27/2023 15:08:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekstilaatikko tekstio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekstilaatiokko2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teskkenttä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/28/2023 10:28:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampparit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/27/2029 14:44:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/27/2023 15:10:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MalliVartio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vart</t>
   </si>
 </sst>
 </file>
@@ -172,6 +220,331 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2"/>
